--- a/data1.xlsx
+++ b/data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apolo\Desktop\CE_apolo\programas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{8A09D00D-1513-4EB7-B64B-5FDD37FE9554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A9445A-34B6-4705-AC3F-9EC2600FE221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
-  <si>
-    <t>Largura maior da parte liquida</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>[m]</t>
   </si>
@@ -43,24 +40,15 @@
     <t>Área total transversal</t>
   </si>
   <si>
-    <t xml:space="preserve">Área da campana </t>
-  </si>
-  <si>
     <t xml:space="preserve">Volume total do biodigestor </t>
   </si>
   <si>
     <t>[m³]</t>
   </si>
   <si>
-    <t xml:space="preserve">Volume total da fossa </t>
-  </si>
-  <si>
     <t xml:space="preserve">Volume total destinado ao gás </t>
   </si>
   <si>
-    <t xml:space="preserve">Volume útil do biodigestor </t>
-  </si>
-  <si>
     <t>Volume de segurança</t>
   </si>
   <si>
@@ -76,15 +64,6 @@
     <t>Altura do volume de segurança</t>
   </si>
   <si>
-    <t>Area da geomembrana para a fossa</t>
-  </si>
-  <si>
-    <t>Area da geomembrana para o gasômetro</t>
-  </si>
-  <si>
-    <t>Area total da geomembrana</t>
-  </si>
-  <si>
     <t>Altura da Campana em relação ao solo</t>
   </si>
   <si>
@@ -101,14 +80,159 @@
   </si>
   <si>
     <t>[m³/dia]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume total do biodigestor com base nos parâmetros calculados </t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Raio da bolsa plástica</t>
+  </si>
+  <si>
+    <t>Largura maior da parte líquida</t>
+  </si>
+  <si>
+    <t>Cd</t>
+  </si>
+  <si>
+    <t>Tempo de retenção hídrica</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Af</t>
+  </si>
+  <si>
+    <t>At</t>
+  </si>
+  <si>
+    <t>Ac</t>
+  </si>
+  <si>
+    <t>Vt</t>
+  </si>
+  <si>
+    <t>Vu</t>
+  </si>
+  <si>
+    <t>Vg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume útil do biodigestor** </t>
+  </si>
+  <si>
+    <t>Vub</t>
+  </si>
+  <si>
+    <t>Vs</t>
+  </si>
+  <si>
+    <t>Vga</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
+    <t>Agf</t>
+  </si>
+  <si>
+    <t>Agg</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>hc</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Vtp</t>
+  </si>
+  <si>
+    <t>Sem dimensão</t>
+  </si>
+  <si>
+    <t>Volume total útil do biodigestor</t>
+  </si>
+  <si>
+    <t>Volume de segurança calc.</t>
+  </si>
+  <si>
+    <t>Vsc</t>
+  </si>
+  <si>
+    <t>Parametros Iniciais</t>
+  </si>
+  <si>
+    <t>Parametros totais de dimensão</t>
+  </si>
+  <si>
+    <t>Área total da geomembrana</t>
+  </si>
+  <si>
+    <t>Parâmetros do Volume Útil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parâmetros do Volume destinado ao gás </t>
+  </si>
+  <si>
+    <t>Parâmetros do Volume de Segurança</t>
+  </si>
+  <si>
+    <t>Parâmetros de área de geomembrana</t>
+  </si>
+  <si>
+    <t>Comprimento</t>
+  </si>
+  <si>
+    <t>Proporção de fase líquida desejada</t>
+  </si>
+  <si>
+    <t>Vaor calculado com base em TRH e Cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados dos Cálculos de Dimensionamento do biodigestor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Área transversal destinada ao gás </t>
+  </si>
+  <si>
+    <t>Área da geomembrana para a fossa</t>
+  </si>
+  <si>
+    <t>Área da geomembrana para o gasômetro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -246,7 +370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,8 +550,32 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -542,6 +690,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -588,11 +797,39 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -949,272 +1186,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C22"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.21679999999999999</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
-        <v>1.91</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.1842547666972001</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3">
+        <f>C17/(1-0.4)</f>
+        <v>2.9097508543989843</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3">
+        <f>C9*C35</f>
+        <v>16.260000000000002</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3">
+        <v>41.4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C23+C26+C19</f>
+        <v>16.259999999999998</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.1262000000000001</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.9160999999999999</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3">
         <v>1.1842547666972001</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3">
+        <f>0.4755*(C15+C8)*C8</f>
+        <v>1.7458505126393906</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <f>0.4755*(B1+B2)*B2</f>
-        <v>1.7424155224758471</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <f>B4/(1-0.4)</f>
-        <v>2.9040258707930784</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3">
+        <f>C17*C35</f>
+        <v>9.7560000000000002</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <f>B5-B4</f>
-        <v>1.1616103483172313</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5">
+        <f>C4*C3</f>
+        <v>9.7560000000000002</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3">
+        <f>C9-C17</f>
+        <v>1.1639003417595937</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <f>B5*5.97</f>
-        <v>17.337034448634679</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3">
+        <f>C21*C35</f>
+        <v>6.5039999999999996</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3">
+        <f>C22-C26</f>
+        <v>6.0161999999999995</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
-        <f>B4*5.97</f>
-        <v>10.402220669180807</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3">
+        <f>C19*0.05</f>
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
-        <f>B6*5.97</f>
-        <v>6.9348137794538705</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1.9160999999999999</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
-        <f>B21*B22</f>
-        <v>10.395000000000001</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
-        <f>B10*0.05</f>
-        <v>0.51975000000000005</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2">
-        <f>B9*0.95</f>
-        <v>6.5880730904811768</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="3">
+        <f>((C27+C28)*C29/2)*C35</f>
+        <v>0.49257534150498444</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3">
+        <v>16.32</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="3">
+        <f>C11-C32</f>
+        <v>25.08</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2">
-        <v>1.91</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2">
-        <v>17.170000000000002</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2">
-        <f>B18-B16</f>
-        <v>26.622999999999998</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2">
-        <v>43.792999999999999</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="3">
+        <f>C19/C17</f>
+        <v>5.5881073032139517</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2">
-        <f>B10/B4</f>
-        <v>5.965855943035594</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2">
-        <v>45</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B36" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A34:D34"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
